--- a/biology/Zoologie/Penthetria_gigantea/Penthetria_gigantea.xlsx
+++ b/biology/Zoologie/Penthetria_gigantea/Penthetria_gigantea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia gigantea, Plecia crassiventris, Plecia luteipennis, Plecia miegi
 Penthetria gigantea est une espèce fossile de mouche ou Diptère de la famille des Bibionidae ou "mouches de Saint-Marc" (ou mouches noires), et du genre Penthetria.
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Penthetria gigantea est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le nom Plecia gigantea[1],[2]. 
-Fossiles
-L'holotype R 970, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel).
-Il a aussi plusieurs cotypes R 619, R 914 et 888 de la même collection Mieg du musée de Bâle et l'échantillon 156 de la collection de la société industrielle de Mulhouse.
-Reclassement
-Cette espèce avait été classée dans le genre Plecia initialement. Elle a été reclassée en 2017 par John Skartveit et André Nel[3] dans le genre Penthetria. 
-Cela a été confirmé en 2021 par John Skartveit et Wedmann[4].
-Synonymes
-Selon les synonymes actuellement référencés dans la Paleobiology Database, il a aussi plusieurs autres paratypes concernant Plecia crassiventris (dont les ailes moins longues s'arrêtent au niveau de l'abdomen), Plecia luteipennis et Plecia miegi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Penthetria gigantea est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le nom Plecia gigantea,. 
 </t>
         </is>
       </c>
@@ -548,16 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 2] :
-« Insecte au corps noir brunâtre, ailes brunes avec nervures foncées, pattes brunes. Tête arrondie; deux gros yeux à facettes régulières, yeux arrondis ; front large ; antennes cordiformes (156). Thorax de forme ovale, mésonotum avec dépression en U ; scutellum arrondi. Abdomen cylindrique, légèrement renflé vers le milieu, aussi large que le thorax ; 8 segments, le dernier arrondi et plus court que les précédents. Pattes velues ; fémur cylindrique, légèrement renflé en massue ; tibia grêle, un éperon apical sur le tibia III (156); tarse de 5 articles, le 1er est le plus long, le 5° porte deux griffes. Balanciers avec tige courte, massue en forme d'haltère tronquée à l'extrémité. Ailes brunes avec nervation de Plecia bien conservée, C se termine au sommet de l'aile, Rs bifurqué, le rameau antérieur légèrement tendu ; les ailes dépassent longuement l'abdomen[1]. »
-Dimensions
-La longueur totale du corps est de 10 mm à 13,5 mm. Aile 11,5 mm à 12,5 mm[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R 970, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel).
+Il a aussi plusieurs cotypes R 619, R 914 et 888 de la même collection Mieg du musée de Bâle et l'échantillon 156 de la collection de la société industrielle de Mulhouse.
 </t>
         </is>
       </c>
@@ -583,12 +592,164 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reclassement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce avait été classée dans le genre Plecia initialement. Elle a été reclassée en 2017 par John Skartveit et André Nel dans le genre Penthetria. 
+Cela a été confirmé en 2021 par John Skartveit et Wedmann.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Penthetria_gigantea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_gigantea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les synonymes actuellement référencés dans la Paleobiology Database, il a aussi plusieurs autres paratypes concernant Plecia crassiventris (dont les ailes moins longues s'arrêtent au niveau de l'abdomen), Plecia luteipennis et Plecia miegi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Penthetria_gigantea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_gigantea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 2] :
+« Insecte au corps noir brunâtre, ailes brunes avec nervures foncées, pattes brunes. Tête arrondie; deux gros yeux à facettes régulières, yeux arrondis ; front large ; antennes cordiformes (156). Thorax de forme ovale, mésonotum avec dépression en U ; scutellum arrondi. Abdomen cylindrique, légèrement renflé vers le milieu, aussi large que le thorax ; 8 segments, le dernier arrondi et plus court que les précédents. Pattes velues ; fémur cylindrique, légèrement renflé en massue ; tibia grêle, un éperon apical sur le tibia III (156); tarse de 5 articles, le 1er est le plus long, le 5° porte deux griffes. Balanciers avec tige courte, massue en forme d'haltère tronquée à l'extrémité. Ailes brunes avec nervation de Plecia bien conservée, C se termine au sommet de l'aile, Rs bifurqué, le rameau antérieur légèrement tendu ; les ailes dépassent longuement l'abdomen. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Penthetria_gigantea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_gigantea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps est de 10 mm à 13,5 mm. Aile 11,5 mm à 12,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Penthetria_gigantea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_gigantea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces Plecia-Penthetria forment le groupe entomologique caractéristique de la station de Kleinkem(b)s, décrite comme une forêt marécageuse, dans un climat tempéré chaud[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces Plecia-Penthetria forment le groupe entomologique caractéristique de la station de Kleinkem(b)s, décrite comme une forêt marécageuse, dans un climat tempéré chaud.
 </t>
         </is>
       </c>
